--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NumpyNinza\RestAssured_lmsHackathon\LMS_RestAssured\Team1_AssuredAutomators_Lms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA623DFD-68AA-44D1-8F6E-4C2BD3421FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC2E85B-A662-4C09-ACA8-4632BD8BB69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19190" yWindow="-640" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-760" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>Scenario</t>
   </si>
@@ -45,26 +45,167 @@
     <t>ProgramId</t>
   </si>
   <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>auto11</t>
-  </si>
-  <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>Automation112</t>
+  </si>
+  <si>
+    <t>ContentType</t>
+  </si>
+  <si>
+    <t>CreateBatchWithMissingAdditionalFields</t>
+  </si>
+  <si>
+    <t>CreateBatchWithValidRequestBody</t>
+  </si>
+  <si>
+    <t>CreateBatchWithValidEndpointNonexistingBody</t>
+  </si>
+  <si>
+    <t>CreateBatchWithInvalidEndpoint</t>
+  </si>
+  <si>
+    <t>CreateBatchWithMissingMandatoryFields</t>
+  </si>
+  <si>
+    <t>CreateBatchWithInactiveProgramId</t>
+  </si>
+  <si>
+    <t>CreateBatchWithInvalidData</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>UpdateBatchIdWithMandatoryFields</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>UpdateBatchIdWithMIssingMandatoryFields</t>
+  </si>
+  <si>
+    <t>UpdateBatchWithInvalidData</t>
+  </si>
+  <si>
+    <t>UpdateBatchIdWithAllFields</t>
+  </si>
+  <si>
+    <t>Automation114</t>
+  </si>
+  <si>
+    <t>Automation115</t>
+  </si>
+  <si>
+    <t>Automation116</t>
+  </si>
+  <si>
+    <t>Automation117</t>
+  </si>
+  <si>
+    <t>Automation118</t>
+  </si>
+  <si>
+    <t>Automation119</t>
+  </si>
+  <si>
+    <t>Automation120</t>
+  </si>
+  <si>
+    <t>Automation121</t>
+  </si>
+  <si>
+    <t>Automation122</t>
+  </si>
+  <si>
+    <t>Automation123</t>
+  </si>
+  <si>
+    <t>CreateBatchWithValidData</t>
+  </si>
+  <si>
+    <t>CreateBatchWithEmptyProgramId</t>
+  </si>
+  <si>
+    <t>CreateBatchWithEmptyNoOfClasses</t>
+  </si>
+  <si>
+    <t>CreateBatchWithEmptyBatchName</t>
+  </si>
+  <si>
+    <t>CreateBatchWithEmptyBatchStatus</t>
+  </si>
+  <si>
+    <t>RequestType</t>
+  </si>
+  <si>
+    <t>ExpectedStatusCode</t>
+  </si>
+  <si>
+    <t>ExpectedMessage</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>MLBatch511</t>
+  </si>
+  <si>
+    <t>MLBatch512</t>
+  </si>
+  <si>
+    <t>MLBatch513</t>
+  </si>
+  <si>
+    <t>MLBatch514</t>
+  </si>
+  <si>
+    <t>MLBatch515</t>
+  </si>
+  <si>
+    <t>MLBatch516</t>
+  </si>
+  <si>
+    <t>MLBatch518</t>
+  </si>
+  <si>
+    <t>MLBatch519</t>
+  </si>
+  <si>
+    <t>MLBatch521</t>
+  </si>
+  <si>
+    <t>MLBatch523</t>
+  </si>
+  <si>
+    <t>MLBatch524</t>
+  </si>
+  <si>
+    <t>MLBatch525</t>
+  </si>
+  <si>
+    <t>MLBatch526</t>
+  </si>
+  <si>
+    <t>$%#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,8 +231,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,21 +516,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,28 +554,446 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>16713</v>
+      </c>
+      <c r="G2">
+        <v>201</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>16359</v>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>16713</v>
+      </c>
+      <c r="G3">
+        <v>201</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>16713</v>
+      </c>
+      <c r="G4">
+        <v>201</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>16713</v>
+      </c>
+      <c r="G6">
+        <v>400</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>16713</v>
+      </c>
+      <c r="G7">
+        <v>400</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>16713</v>
+      </c>
+      <c r="G8">
+        <v>400</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>16713</v>
+      </c>
+      <c r="G9">
+        <v>404</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>16713</v>
+      </c>
+      <c r="G10">
+        <v>400</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>400</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>16653</v>
+      </c>
+      <c r="G12">
+        <v>400</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>16713</v>
+      </c>
+      <c r="G13">
+        <v>400</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>16713</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>16713</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>16713</v>
+      </c>
+      <c r="G16">
+        <v>400</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>16713</v>
+      </c>
+      <c r="G17">
+        <v>404</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NumpyNinza\RestAssured_lmsHackathon\LMS_RestAssured\Team1_AssuredAutomators_Lms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC2E85B-A662-4C09-ACA8-4632BD8BB69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CA87FC-5F6B-4ADE-85E0-E31EF5130180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-760" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Batch" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId1"/>
+    <sheet name="Batch" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>Scenario</t>
   </si>
@@ -96,9 +97,6 @@
     <t>Automation114</t>
   </si>
   <si>
-    <t>Automation115</t>
-  </si>
-  <si>
     <t>Automation116</t>
   </si>
   <si>
@@ -150,27 +148,6 @@
     <t>application/json</t>
   </si>
   <si>
-    <t>MLBatch511</t>
-  </si>
-  <si>
-    <t>MLBatch512</t>
-  </si>
-  <si>
-    <t>MLBatch513</t>
-  </si>
-  <si>
-    <t>MLBatch514</t>
-  </si>
-  <si>
-    <t>MLBatch515</t>
-  </si>
-  <si>
-    <t>MLBatch516</t>
-  </si>
-  <si>
-    <t>MLBatch518</t>
-  </si>
-  <si>
     <t>MLBatch519</t>
   </si>
   <si>
@@ -190,6 +167,51 @@
   </si>
   <si>
     <t>$%#</t>
+  </si>
+  <si>
+    <t>CreateBatchWithNoAuth</t>
+  </si>
+  <si>
+    <t>MLBatch017</t>
+  </si>
+  <si>
+    <t>MLBatch0122</t>
+  </si>
+  <si>
+    <t>MLBatch0133</t>
+  </si>
+  <si>
+    <t>MLBatch0144</t>
+  </si>
+  <si>
+    <t>MLBatch0150</t>
+  </si>
+  <si>
+    <t>MLBatch0160</t>
+  </si>
+  <si>
+    <t>userLoginEmailId</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Apiphase@2</t>
+  </si>
+  <si>
+    <t>ValidCredentials</t>
+  </si>
+  <si>
+    <t>sdetorganizer@gmail.com</t>
+  </si>
+  <si>
+    <t>InvalidPassword</t>
+  </si>
+  <si>
+    <t>Apiphae@2</t>
+  </si>
+  <si>
+    <t>Bad credentials</t>
   </si>
 </sst>
 </file>
@@ -515,16 +537,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF69773-D468-4F91-9969-659E719A42BF}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0038A148-1538-4B12-93D7-7124D9E7FF38}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{29B7576F-08A1-48D8-9EF2-667427397061}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{A2962D63-8C28-4E70-BFBB-3FC46429E733}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
@@ -555,27 +662,27 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -590,7 +697,7 @@
         <v>201</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -601,7 +708,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -616,7 +723,7 @@
         <v>201</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -630,7 +737,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -645,7 +752,7 @@
         <v>201</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -653,10 +760,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -664,11 +771,14 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="G5">
         <v>400</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -676,10 +786,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -691,7 +801,7 @@
         <v>400</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -699,10 +809,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -714,7 +827,7 @@
         <v>400</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -722,7 +835,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -737,7 +850,7 @@
         <v>400</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -747,26 +860,17 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
       <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>16713</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>404</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -774,16 +878,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -792,27 +893,37 @@
         <v>16713</v>
       </c>
       <c r="G10">
-        <v>400</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>16713</v>
       </c>
       <c r="G11">
         <v>400</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -820,28 +931,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>16653</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>400</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
@@ -849,28 +954,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13">
-        <v>16713</v>
+        <v>16653</v>
       </c>
       <c r="G13">
         <v>400</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -878,16 +983,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -896,27 +1001,27 @@
         <v>16713</v>
       </c>
       <c r="G14">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -928,7 +1033,7 @@
         <v>200</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -936,16 +1041,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -954,10 +1059,10 @@
         <v>16713</v>
       </c>
       <c r="G16">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
@@ -965,30 +1070,59 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>16713</v>
+      </c>
+      <c r="G17">
+        <v>400</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
         <v>17</v>
       </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>16713</v>
-      </c>
-      <c r="G17">
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>16713</v>
+      </c>
+      <c r="G18">
         <v>404</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
         <v>18</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NumpyNinza\RestAssured_lmsHackathon\LMS_RestAssured\Team1_AssuredAutomators_Lms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CA87FC-5F6B-4ADE-85E0-E31EF5130180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABD0DC1-14B5-4AA6-803A-DBCD96D4E824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-760" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -175,15 +175,6 @@
     <t>MLBatch017</t>
   </si>
   <si>
-    <t>MLBatch0122</t>
-  </si>
-  <si>
-    <t>MLBatch0133</t>
-  </si>
-  <si>
-    <t>MLBatch0144</t>
-  </si>
-  <si>
     <t>MLBatch0150</t>
   </si>
   <si>
@@ -212,6 +203,15 @@
   </si>
   <si>
     <t>Bad credentials</t>
+  </si>
+  <si>
+    <t>MLBatch012222</t>
+  </si>
+  <si>
+    <t>MLBatch013333</t>
+  </si>
+  <si>
+    <t>MLBatch014444</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF69773-D468-4F91-9969-659E719A42BF}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>37</v>
@@ -576,13 +576,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -593,19 +593,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -708,7 +708,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -737,7 +737,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -763,7 +763,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -789,7 +789,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>6</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="wUyvdjv8UZuNoIGCp2zyErwF/hRAHPppLSGLG263Y5E="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="J/W64tlr9i02Pz9MSvTuKUxHt9knV2rVgUelaS+iPcU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="252">
   <si>
     <t>Scenario</t>
   </si>
@@ -184,443 +184,602 @@
     <t>MLBatch526</t>
   </si>
   <si>
+    <t>userComments</t>
+  </si>
+  <si>
+    <t>userEduPg</t>
+  </si>
+  <si>
+    <t>userEduUg</t>
+  </si>
+  <si>
     <t xml:space="preserve"> userFirstName</t>
   </si>
   <si>
     <t>userLastName</t>
   </si>
   <si>
+    <t>userLinkedinUrl</t>
+  </si>
+  <si>
+    <t>userLocation</t>
+  </si>
+  <si>
     <t xml:space="preserve"> userMiddleName</t>
   </si>
   <si>
     <t>userPhoneNumber</t>
   </si>
   <si>
-    <t>userLocation</t>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>userRoleStatus</t>
   </si>
   <si>
     <t>userTimeZone</t>
   </si>
   <si>
-    <t>userLinkedinUrl</t>
-  </si>
-  <si>
-    <t>userEduUgu</t>
-  </si>
-  <si>
-    <t>userEduPg</t>
-  </si>
-  <si>
-    <t>userComments</t>
-  </si>
-  <si>
     <t>userVisaStatus</t>
   </si>
   <si>
+    <t>loginStatus</t>
+  </si>
+  <si>
     <t>userLoginEmail</t>
   </si>
   <si>
-    <t>roleId</t>
-  </si>
-  <si>
-    <t>userRoleStatus</t>
-  </si>
-  <si>
-    <t>loginStatus</t>
-  </si>
-  <si>
     <t>CreateUserWithValidData</t>
   </si>
   <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
     <t>Rajkumar</t>
   </si>
   <si>
     <t>Sharma</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/raj-sharma-0165a36/</t>
+  </si>
+  <si>
+    <t>Ashburn</t>
+  </si>
+  <si>
     <t>Dinesh</t>
   </si>
   <si>
-    <t>Ashburn</t>
+    <t>R02</t>
   </si>
   <si>
     <t>EST</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/raj-sharma-0165a36/</t>
-  </si>
-  <si>
-    <t>BCA</t>
-  </si>
-  <si>
-    <t>MCA</t>
-  </si>
-  <si>
-    <t>Enrollment</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
     <t>raj75mishra@gmail.com</t>
   </si>
   <si>
-    <t>R02</t>
-  </si>
-  <si>
-    <t>CreateUserWithValidDataForAdmin</t>
-  </si>
-  <si>
-    <t>Priya</t>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>Kiran</t>
+    <t>201 OK</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>CreateUserWithExistingPhoneNumber</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Neeta</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/neeta-gupta-0165a36/</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Roshan</t>
+  </si>
+  <si>
+    <t>H1B</t>
+  </si>
+  <si>
+    <t>neeta55gupta@gmail.com</t>
+  </si>
+  <si>
+    <t>400 Bad Request</t>
+  </si>
+  <si>
+    <t>Failed to create new User as phone number {No} already exists</t>
+  </si>
+  <si>
+    <t>CreateUserWithMissingMandatoryFields</t>
+  </si>
+  <si>
+    <t>Java-script</t>
+  </si>
+  <si>
+    <t>MCM</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Ganga</t>
+  </si>
+  <si>
+    <t>rajsharma@gmail.com</t>
+  </si>
+  <si>
+    <t>401 Bad Request</t>
+  </si>
+  <si>
+    <t>CreateUserWithEmptyPhone Number</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Msc</t>
+  </si>
+  <si>
+    <t>Bsc</t>
+  </si>
+  <si>
+    <t>Mithali</t>
+  </si>
+  <si>
+    <t>Desai</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mithali-desai-0679a33/</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>Indian-Citizen</t>
+  </si>
+  <si>
+    <t>mithali777@gmail.com</t>
+  </si>
+  <si>
+    <t>402 Bad Request</t>
+  </si>
+  <si>
+    <t>CreateUserWithEmptyRoleId</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Bs</t>
+  </si>
+  <si>
+    <t>Geeta</t>
+  </si>
+  <si>
+    <t>Rai</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/geeta-rai-0679a33/</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>Canada-Citizen</t>
+  </si>
+  <si>
+    <t>geeta876@gmail.com</t>
+  </si>
+  <si>
+    <t>403 Bad Request</t>
+  </si>
+  <si>
+    <t>CreateUserWithEmptyRoleStatus</t>
+  </si>
+  <si>
+    <t>CSharp</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Seeta</t>
+  </si>
+  <si>
+    <t>Dhola</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/seeta-dhola-0679a33/</t>
+  </si>
+  <si>
+    <t>Tennesse</t>
+  </si>
+  <si>
+    <t>Not-Specified</t>
+  </si>
+  <si>
+    <t>dhola234@gmail.com</t>
+  </si>
+  <si>
+    <t>404 Bad Request</t>
+  </si>
+  <si>
+    <t>CreateUserWithEmptyFirstName</t>
+  </si>
+  <si>
+    <t>Oracel</t>
+  </si>
+  <si>
+    <t>MTech</t>
+  </si>
+  <si>
+    <t>Bio-Tech</t>
+  </si>
+  <si>
+    <t>Khole</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/khole-0679a66/</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>khole999@gmail.com</t>
+  </si>
+  <si>
+    <t>405 Bad Request</t>
+  </si>
+  <si>
+    <t>CreateUserWithEmptyLast Name</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>BSc</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramesh-desai-0679a33/</t>
+  </si>
+  <si>
+    <t>Fremont</t>
+  </si>
+  <si>
+    <t>rameshdesai@gmail.com</t>
+  </si>
+  <si>
+    <t>406 Bad Request</t>
+  </si>
+  <si>
+    <t>CreateUserWithEmptyTimeZone</t>
+  </si>
+  <si>
+    <t>Enroll</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Bote</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/suresh-bote-0679a33/</t>
+  </si>
+  <si>
+    <t>Reston</t>
+  </si>
+  <si>
+    <t>bote4suresh@gmail.com</t>
+  </si>
+  <si>
+    <t>407 Bad Request</t>
+  </si>
+  <si>
+    <t>CreateUserWithEmptyVisaStatus</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Mcom</t>
+  </si>
+  <si>
+    <t>Bcom</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>Khare</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mahesh-khare-0679a33/</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>US_citizen</t>
+  </si>
+  <si>
+    <t>mahesh5khare@gmail.com</t>
+  </si>
+  <si>
+    <t>408 Bad Request</t>
+  </si>
+  <si>
+    <t>UpdateUserwithValidData</t>
+  </si>
+  <si>
+    <t>Core-java</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Modi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/tina-modi-23679a33/</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>tinamodi@gmail.com</t>
+  </si>
+  <si>
+    <t>UpdateUserWithMissingMandatoryFields</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/riya-shah-23679a33/</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>riyashah@gmail.com</t>
+  </si>
+  <si>
+    <t>UpdateUserWithEmptyPhone Number</t>
+  </si>
+  <si>
+    <t>Remember</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/neha-sharma-7679a33/</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Ritesh</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>nehaSharma22@gmail.com</t>
+  </si>
+  <si>
+    <t>UpdateUserWithEmptyFirstName</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Varma</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sneha-varma-7679a33/</t>
+  </si>
+  <si>
+    <t>Vegas</t>
+  </si>
+  <si>
+    <t>Kalpesh</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>snehavarma378@gmail.com</t>
+  </si>
+  <si>
+    <t>UpdateUserWithEmptyLast Name</t>
+  </si>
+  <si>
+    <t>Gherkins</t>
+  </si>
+  <si>
+    <t>Nisha</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nisha-gupta-8979a33/</t>
   </si>
   <si>
     <t>LA</t>
   </si>
   <si>
-    <t>CST</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/priya-kiran-0134a78/</t>
-  </si>
-  <si>
-    <t>BTech</t>
-  </si>
-  <si>
-    <t>MTech</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>US-Citizen</t>
-  </si>
-  <si>
-    <t>priyskir@gmail.com</t>
-  </si>
-  <si>
-    <t>R01</t>
-  </si>
-  <si>
-    <t>CreateUserWithValidDataForStudent</t>
-  </si>
-  <si>
-    <t>Tejas</t>
-  </si>
-  <si>
-    <t>Varma</t>
-  </si>
-  <si>
-    <t>Mahes</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>IST</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/tej-varma-0137a58/</t>
-  </si>
-  <si>
-    <t>Bcom</t>
-  </si>
-  <si>
-    <t>MBA</t>
-  </si>
-  <si>
-    <t>Keep it</t>
-  </si>
-  <si>
-    <t>GC-EAD</t>
-  </si>
-  <si>
-    <t>varma22tej@gmail.com</t>
-  </si>
-  <si>
-    <t>CreateUserWithValidDataForStaff</t>
-  </si>
-  <si>
-    <t>Mina</t>
-  </si>
-  <si>
-    <t>Joshi</t>
-  </si>
-  <si>
-    <t>Praksash</t>
-  </si>
-  <si>
-    <t>Va</t>
-  </si>
-  <si>
-    <t>MST</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mina-joshi-0128a22/</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>H4-EAD</t>
-  </si>
-  <si>
-    <t>joshi877@gmail.com</t>
-  </si>
-  <si>
-    <t>R03</t>
-  </si>
-  <si>
-    <t>CreateUserWithExistingPhoneNumber</t>
-  </si>
-  <si>
-    <t>Neeta</t>
-  </si>
-  <si>
-    <t>Gupta</t>
-  </si>
-  <si>
-    <t>Roshan</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/neeta-gupta-0165a36/</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Core-java</t>
-  </si>
-  <si>
-    <t>H1B</t>
-  </si>
-  <si>
-    <t>neeta55gupta@gmail.com</t>
-  </si>
-  <si>
-    <t>Ganga</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>MCM</t>
-  </si>
-  <si>
-    <t>Java-script</t>
-  </si>
-  <si>
-    <t>rajsharma@gmail.com</t>
-  </si>
-  <si>
-    <t>CreateBatchWithEmptyPhone Number</t>
-  </si>
-  <si>
-    <t>Mithali</t>
-  </si>
-  <si>
-    <t>Desai</t>
-  </si>
-  <si>
-    <t>Ganesh</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mithali-desai-0679a33/</t>
-  </si>
-  <si>
-    <t>Bsc</t>
-  </si>
-  <si>
-    <t>Msc</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
-    <t>Indian-Citizen</t>
-  </si>
-  <si>
-    <t>mithali777@gmail.com</t>
-  </si>
-  <si>
-    <t>CreateBatchWithEmptyRoleId</t>
-  </si>
-  <si>
-    <t>Geeta</t>
-  </si>
-  <si>
-    <t>Rai</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/geeta-rai-0679a33/</t>
-  </si>
-  <si>
-    <t>Bs</t>
-  </si>
-  <si>
-    <t>Ms</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>Canada-Citizen</t>
-  </si>
-  <si>
-    <t>geeta876@gmail.com</t>
-  </si>
-  <si>
-    <t>CreateBatchWithEmptyRoleStatus</t>
-  </si>
-  <si>
-    <t>Seeta</t>
-  </si>
-  <si>
-    <t>Dhola</t>
-  </si>
-  <si>
-    <t>Tennesse</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/seeta-dhola-0679a33/</t>
-  </si>
-  <si>
-    <t>CSharp</t>
-  </si>
-  <si>
-    <t>Not-Specified</t>
-  </si>
-  <si>
-    <t>dhola234@gmail.com</t>
-  </si>
-  <si>
-    <t>CreateBatchWithEmptyFirstName</t>
-  </si>
-  <si>
-    <t>Khole</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/khole-0679a66/</t>
-  </si>
-  <si>
-    <t>Bio-Tech</t>
-  </si>
-  <si>
-    <t>Oracel</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>khole999@gmail.com</t>
-  </si>
-  <si>
-    <t>CreateBatchWithEmptyLast Name</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>Fremont</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ramesh-desai-0679a33/</t>
-  </si>
-  <si>
-    <t>BSc</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>rameshdesai@gmail.com</t>
-  </si>
-  <si>
-    <t>CreateBatchWithEmptyTimeZone</t>
-  </si>
-  <si>
-    <t>Suresh</t>
-  </si>
-  <si>
-    <t>Bote</t>
-  </si>
-  <si>
-    <t>Reston</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/suresh-bote-0679a33/</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Selenium</t>
-  </si>
-  <si>
-    <t>bote4suresh@gmail.com</t>
-  </si>
-  <si>
-    <t>CreateBatchWithEmptyVisaStatus</t>
-  </si>
-  <si>
-    <t>Mahesh</t>
-  </si>
-  <si>
-    <t>Khare</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mahesh-khare-0679a33/</t>
-  </si>
-  <si>
-    <t>Mcom</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>US_citizwn</t>
-  </si>
-  <si>
-    <t>mahesh5khare@gmail.com</t>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>nisha789gupta@gmail.com</t>
+  </si>
+  <si>
+    <t>UpdateUserWithEmptyTimeZone</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Raksha</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/raksha-dhola-7479a33/</t>
+  </si>
+  <si>
+    <t>Hawai</t>
+  </si>
+  <si>
+    <t>Pavan</t>
+  </si>
+  <si>
+    <t>R08</t>
+  </si>
+  <si>
+    <t>ravi587@gmail.com</t>
+  </si>
+  <si>
+    <t>UpdateUserWithEmptyVisaStatus</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Shital</t>
+  </si>
+  <si>
+    <t>Doshi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shital-doshi-2459a33/</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Ratan</t>
+  </si>
+  <si>
+    <t>R09</t>
+  </si>
+  <si>
+    <t>shitalratan@gmail.com</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>userComments:</t>
+  </si>
+  <si>
+    <t>string,</t>
+  </si>
+  <si>
+    <t>userEduPg: "string",</t>
+  </si>
+  <si>
+    <t>userEduUg: "string",</t>
+  </si>
+  <si>
+    <t>userFirstName: "string",</t>
+  </si>
+  <si>
+    <t>userId: "string",</t>
+  </si>
+  <si>
+    <t>userLastName: "string",</t>
+  </si>
+  <si>
+    <t>userLinkedinUrl:</t>
+  </si>
+  <si>
+    <t>userLocation: "string",</t>
+  </si>
+  <si>
+    <t>userPhoneNumber: 0,</t>
+  </si>
+  <si>
+    <t>userTimeZone: "String",</t>
+  </si>
+  <si>
+    <t>userVisaStatus: "String"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -630,12 +789,16 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -657,19 +820,17 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0563C1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -684,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -692,46 +853,65 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2422,22 +2602,24 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="36.57"/>
     <col customWidth="1" min="2" max="2" width="14.29"/>
-    <col customWidth="1" min="3" max="3" width="13.0"/>
-    <col customWidth="1" min="4" max="4" width="16.29"/>
-    <col customWidth="1" min="5" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="6" width="12.0"/>
-    <col customWidth="1" min="7" max="7" width="13.71"/>
-    <col customWidth="1" min="8" max="8" width="44.57"/>
-    <col customWidth="1" min="9" max="9" width="11.57"/>
-    <col customWidth="1" min="10" max="10" width="10.43"/>
-    <col customWidth="1" min="11" max="11" width="14.14"/>
+    <col customWidth="1" min="3" max="3" width="10.57"/>
+    <col customWidth="1" min="4" max="4" width="11.71"/>
+    <col customWidth="1" min="5" max="5" width="14.14"/>
+    <col customWidth="1" min="6" max="6" width="13.43"/>
+    <col customWidth="1" min="7" max="7" width="47.86"/>
+    <col customWidth="1" min="8" max="8" width="12.29"/>
+    <col customWidth="1" min="9" max="9" width="16.14"/>
+    <col customWidth="1" min="10" max="10" width="17.14"/>
+    <col customWidth="1" min="11" max="11" width="6.86"/>
     <col customWidth="1" min="12" max="12" width="13.57"/>
-    <col customWidth="1" min="13" max="13" width="21.86"/>
-    <col customWidth="1" min="14" max="14" width="7.0"/>
-    <col customWidth="1" min="15" max="15" width="13.71"/>
-    <col customWidth="1" min="16" max="16" width="10.43"/>
-    <col customWidth="1" min="17" max="17" width="15.14"/>
-    <col customWidth="1" min="18" max="18" width="12.43"/>
+    <col customWidth="1" min="13" max="13" width="13.29"/>
+    <col customWidth="1" min="14" max="14" width="13.71"/>
+    <col customWidth="1" min="15" max="15" width="10.43"/>
+    <col customWidth="1" min="16" max="16" width="24.57"/>
+    <col customWidth="1" min="17" max="17" width="16.0"/>
+    <col customWidth="1" min="18" max="18" width="18.57"/>
+    <col customWidth="1" min="19" max="19" width="15.43"/>
+    <col customWidth="1" min="20" max="20" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2447,22 +2629,22 @@
       <c r="B1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -2480,7 +2662,7 @@
       <c r="M1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>67</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -2489,919 +2671,1086 @@
       <c r="P1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="6">
         <v>6.462345679E9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2.015648798E9</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="H4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="15">
+        <v>9.278925693E9</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="L5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="S5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T5" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2.387457754E9</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="12">
-        <v>9.098667896E9</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="7">
-        <v>5.756735673E9</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="G6" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="14">
-        <v>2.015648798E9</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="I6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="15">
+        <v>7.86756999E9</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="15">
+        <v>7.989353536E9</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="R7" s="17"/>
+      <c r="S7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="15">
+        <v>2.6940565E9</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="15">
+        <v>8.934898897E9</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="15">
+        <v>6.512348913E9</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="15">
+        <v>9.278920093E9</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="22">
+        <v>6.512890913E9</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="G14" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J15" s="22">
+        <v>8.934778897E9</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="22">
+        <v>9.290920093E9</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="N16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="O16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J17" s="22">
+        <v>2.056748798E9</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q17" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="S17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J18" s="22">
+        <v>8.934834197E9</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T18" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="12">
-        <v>9.278925693E9</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="12">
-        <v>7.86756999E9</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="12">
-        <v>7.989353536E9</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2.6940565E9</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="12">
-        <v>8.934898897E9</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="12">
-        <v>6.512348913E9</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="12">
-        <v>9.278920093E9</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-    </row>
-    <row r="15">
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16">
-      <c r="N16" s="13"/>
+    <row r="32">
+      <c r="C32" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H2"/>
-    <hyperlink r:id="rId2" ref="H3"/>
-    <hyperlink r:id="rId3" ref="H4"/>
-    <hyperlink r:id="rId4" ref="H5"/>
-    <hyperlink r:id="rId5" ref="H6"/>
-    <hyperlink r:id="rId6" ref="H7"/>
-    <hyperlink r:id="rId7" ref="H8"/>
-    <hyperlink r:id="rId8" ref="H9"/>
-    <hyperlink r:id="rId9" ref="H10"/>
-    <hyperlink r:id="rId10" ref="H11"/>
-    <hyperlink r:id="rId11" ref="H12"/>
-    <hyperlink r:id="rId12" ref="H13"/>
-    <hyperlink r:id="rId13" ref="H14"/>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G5"/>
+    <hyperlink r:id="rId5" ref="G6"/>
+    <hyperlink r:id="rId6" ref="G7"/>
+    <hyperlink r:id="rId7" ref="G8"/>
+    <hyperlink r:id="rId8" ref="G9"/>
+    <hyperlink r:id="rId9" ref="G10"/>
+    <hyperlink r:id="rId10" ref="G11"/>
+    <hyperlink r:id="rId11" ref="G12"/>
+    <hyperlink r:id="rId12" ref="G13"/>
+    <hyperlink r:id="rId13" ref="G14"/>
+    <hyperlink r:id="rId14" ref="G15"/>
+    <hyperlink r:id="rId15" ref="G16"/>
+    <hyperlink r:id="rId16" ref="G17"/>
+    <hyperlink r:id="rId17" ref="G18"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NumpyNinza\RestAssured_lmsHackathon\LMS_RestAssured\Team1_AssuredAutomators_Lms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABD0DC1-14B5-4AA6-803A-DBCD96D4E824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524C68E2-A060-4A2E-A4B3-DD991A27B609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-760" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
     <sheet name="Batch" sheetId="1" r:id="rId2"/>
+    <sheet name="User" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
     <t>Scenario</t>
   </si>
@@ -160,12 +161,6 @@
     <t>MLBatch524</t>
   </si>
   <si>
-    <t>MLBatch525</t>
-  </si>
-  <si>
-    <t>MLBatch526</t>
-  </si>
-  <si>
     <t>$%#</t>
   </si>
   <si>
@@ -175,9 +170,6 @@
     <t>MLBatch017</t>
   </si>
   <si>
-    <t>MLBatch0150</t>
-  </si>
-  <si>
     <t>MLBatch0160</t>
   </si>
   <si>
@@ -205,20 +197,113 @@
     <t>Bad credentials</t>
   </si>
   <si>
-    <t>MLBatch012222</t>
-  </si>
-  <si>
-    <t>MLBatch013333</t>
-  </si>
-  <si>
-    <t>MLBatch014444</t>
+    <t>MLBatch0750</t>
+  </si>
+  <si>
+    <t>MLBatch3456</t>
+  </si>
+  <si>
+    <t>MLBatch5667</t>
+  </si>
+  <si>
+    <t>MLBatch7869</t>
+  </si>
+  <si>
+    <t>userComments</t>
+  </si>
+  <si>
+    <t>userEduPg</t>
+  </si>
+  <si>
+    <t>userEduUg</t>
+  </si>
+  <si>
+    <t>userFirstName</t>
+  </si>
+  <si>
+    <t>userLastName</t>
+  </si>
+  <si>
+    <t>userLinkedinUrl</t>
+  </si>
+  <si>
+    <t>userLocation</t>
+  </si>
+  <si>
+    <t>userMiddleName</t>
+  </si>
+  <si>
+    <t>userPhoneNumber</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>userRoleStatus</t>
+  </si>
+  <si>
+    <t>userTimeZone</t>
+  </si>
+  <si>
+    <t>userVisaStatus</t>
+  </si>
+  <si>
+    <t>loginStatus</t>
+  </si>
+  <si>
+    <t>userLoginEmail</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>wre</t>
+  </si>
+  <si>
+    <t>www.linkedin.com</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Ninja@gmail.com</t>
+  </si>
+  <si>
+    <t>CreateUserWithValidData</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>+91 1236004670</t>
+  </si>
+  <si>
+    <t>%^&amp;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +313,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,16 +343,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>37</v>
@@ -576,13 +673,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -593,19 +690,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -626,7 +723,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -708,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -737,7 +834,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -763,7 +860,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -789,7 +886,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -812,7 +909,7 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -867,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>39</v>
@@ -878,13 +975,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -920,7 +1020,7 @@
         <v>16713</v>
       </c>
       <c r="G11">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>39</v>
@@ -989,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>23</v>
@@ -1075,18 +1175,6 @@
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>16713</v>
-      </c>
       <c r="G17">
         <v>400</v>
       </c>
@@ -1105,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1130,4 +1218,146 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0883ED9D-FC09-4A47-93CF-B3A51E2E4694}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{955CB5D7-B530-42D7-97E8-42D9187F14F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NumpyNinza\RestAssured_lmsHackathon\LMS_RestAssured\Team1_AssuredAutomators_Lms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524C68E2-A060-4A2E-A4B3-DD991A27B609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3D548E-D56D-41E8-A8E3-C3FA657A1345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-760" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
   <si>
     <t>Scenario</t>
   </si>
@@ -723,7 +723,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,9 +1022,7 @@
       <c r="G11">
         <v>404</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="I11" s="1"/>
       <c r="J11" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1203,7 @@
         <v>16713</v>
       </c>
       <c r="G18">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>39</v>
@@ -1222,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0883ED9D-FC09-4A47-93CF-B3A51E2E4694}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1246,7 @@
     <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1300,8 +1298,11 @@
       <c r="Q1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -1352,6 +1353,9 @@
       </c>
       <c r="Q2">
         <v>201</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,28 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NumpyNinza\RestAssured_lmsHackathon\LMS_RestAssured\Team1_AssuredAutomators_Lms\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sindhu\Sindhu Docs\Numpy Ninja\API postman\Hackathon\phase 2\HackathonLMS\Team1_AssuredAutomators_Lms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABD0DC1-14B5-4AA6-803A-DBCD96D4E824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2C95D9-E134-44DA-94F7-10297E6E3C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
     <sheet name="Batch" sheetId="1" r:id="rId2"/>
+    <sheet name="Class" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="109">
   <si>
     <t>Scenario</t>
   </si>
@@ -49,9 +59,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Automation112</t>
-  </si>
-  <si>
     <t>ContentType</t>
   </si>
   <si>
@@ -205,13 +212,157 @@
     <t>Bad credentials</t>
   </si>
   <si>
-    <t>MLBatch012222</t>
-  </si>
-  <si>
     <t>MLBatch013333</t>
   </si>
   <si>
     <t>MLBatch014444</t>
+  </si>
+  <si>
+    <t>BatchId</t>
+  </si>
+  <si>
+    <t>ClassNo</t>
+  </si>
+  <si>
+    <t>ClassDate</t>
+  </si>
+  <si>
+    <t>ClassTopic</t>
+  </si>
+  <si>
+    <t>ClassStatus</t>
+  </si>
+  <si>
+    <t>ClassStaffId</t>
+  </si>
+  <si>
+    <t>ClassDescription</t>
+  </si>
+  <si>
+    <t>ClassComments</t>
+  </si>
+  <si>
+    <t>ClassNotes</t>
+  </si>
+  <si>
+    <t>ClassRecordingPath</t>
+  </si>
+  <si>
+    <t>ClassScheduledDates</t>
+  </si>
+  <si>
+    <t>CreateClassWithValidData</t>
+  </si>
+  <si>
+    <t>2025-04-15T19:04:41.220Z</t>
+  </si>
+  <si>
+    <t>U70</t>
+  </si>
+  <si>
+    <t>java basics</t>
+  </si>
+  <si>
+    <t>first class</t>
+  </si>
+  <si>
+    <t>postman api</t>
+  </si>
+  <si>
+    <t>first recordings</t>
+  </si>
+  <si>
+    <t>2025-04-28T19:04:41.220Z</t>
+  </si>
+  <si>
+    <t>CreateClassWithEmptyClassStatus</t>
+  </si>
+  <si>
+    <t>CreateClassWithMissingMandatoryFields</t>
+  </si>
+  <si>
+    <t>CreateClassWithInvalidContentType</t>
+  </si>
+  <si>
+    <t>2025-04-19T19:04:41.220Z</t>
+  </si>
+  <si>
+    <t>application/xml</t>
+  </si>
+  <si>
+    <t>CreateClassWithStringBatchID</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>CreateClassWithNonexsistingBatchID</t>
+  </si>
+  <si>
+    <t>CreateClassWithEmptyCLassTopic</t>
+  </si>
+  <si>
+    <t>CreateClassWithPastClassDate</t>
+  </si>
+  <si>
+    <t>CreateClassWithExistingCLassTopic</t>
+  </si>
+  <si>
+    <t>2025-02-15T19:04:41.220Z</t>
+  </si>
+  <si>
+    <t>CreateClassWithEmptyClassNo</t>
+  </si>
+  <si>
+    <t>CreateClassWithMandatoryFields</t>
+  </si>
+  <si>
+    <t>javanew1</t>
+  </si>
+  <si>
+    <t>Active11</t>
+  </si>
+  <si>
+    <t>CreateClassWithinvalidclassStatus</t>
+  </si>
+  <si>
+    <t>CreateClassWith invalid classNo</t>
+  </si>
+  <si>
+    <t>jasnew3</t>
+  </si>
+  <si>
+    <t>janew3</t>
+  </si>
+  <si>
+    <t>java script3</t>
+  </si>
+  <si>
+    <t>maven3</t>
+  </si>
+  <si>
+    <t>depen3dencies</t>
+  </si>
+  <si>
+    <t>allure3</t>
+  </si>
+  <si>
+    <t>csharp3</t>
+  </si>
+  <si>
+    <t>lox3</t>
+  </si>
+  <si>
+    <t>python3</t>
+  </si>
+  <si>
+    <t>Automatio444</t>
+  </si>
+  <si>
+    <t>MLBa444</t>
+  </si>
+  <si>
+    <t>physics12</t>
   </si>
 </sst>
 </file>
@@ -544,71 +695,71 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
       </c>
       <c r="D3">
         <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -625,24 +776,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,27 +813,27 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -697,18 +848,18 @@
         <v>201</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -723,21 +874,21 @@
         <v>201</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -752,18 +903,18 @@
         <v>201</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -778,18 +929,18 @@
         <v>400</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -801,18 +952,18 @@
         <v>400</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -827,15 +978,15 @@
         <v>400</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -850,15 +1001,15 @@
         <v>400</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -870,21 +1021,21 @@
         <v>404</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -897,18 +1048,18 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -923,18 +1074,18 @@
         <v>400</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -946,21 +1097,21 @@
         <v>400</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -975,21 +1126,21 @@
         <v>400</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>23</v>
@@ -1004,21 +1155,21 @@
         <v>400</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1033,21 +1184,21 @@
         <v>200</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1062,21 +1213,21 @@
         <v>200</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1091,21 +1242,21 @@
         <v>400</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1120,10 +1271,644 @@
         <v>404</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F4957-0CCC-40BE-ADEF-CA3EBF2CE74A}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2">
+        <v>201</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3">
+        <v>400</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4">
+        <v>404</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5">
+        <v>400</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6">
+        <v>400</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7">
+        <v>400</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8">
+        <v>400</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9">
+        <v>400</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10">
+        <v>400</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11">
+        <v>401</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12">
+        <v>1.02</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12">
+        <v>404</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13">
+        <v>401</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14">
+        <v>415</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sindhu\Sindhu Docs\Numpy Ninja\API postman\Hackathon\phase 2\HackathonLMS\Team1_AssuredAutomators_Lms\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araja\eclipse-workspace\Team1_AssuredAutomators_Lms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB93576-905A-416D-ABD1-18D3726296A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2925D9B8-48F5-419C-B3E7-294984ED3FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
     <sheet name="Batch" sheetId="1" r:id="rId2"/>
     <sheet name="User" sheetId="3" r:id="rId3"/>
     <sheet name="Class" sheetId="4" r:id="rId4"/>
+    <sheet name="program" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="218">
   <si>
     <t>Scenario</t>
   </si>
@@ -439,13 +440,256 @@
   </si>
   <si>
     <t>application/xml</t>
+  </si>
+  <si>
+    <t>ProgramDescription</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>ProgramStatus</t>
+  </si>
+  <si>
+    <t>Expected Statuscode</t>
+  </si>
+  <si>
+    <t>Expected StatusMessage</t>
+  </si>
+  <si>
+    <t>ExpectedContentType</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>AuthRequired</t>
+  </si>
+  <si>
+    <t>URLRequired</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>valid ( POST)</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>Missing unmandatory -created ( POST)</t>
+  </si>
+  <si>
+    <t>Learningrestassure</t>
+  </si>
+  <si>
+    <t>Api</t>
+  </si>
+  <si>
+    <t>Bad Request</t>
+  </si>
+  <si>
+    <t>Already existing program name ( POST)</t>
+  </si>
+  <si>
+    <t>Learning5675ipiipoi</t>
+  </si>
+  <si>
+    <t>APIA</t>
+  </si>
+  <si>
+    <t>rewrw</t>
+  </si>
+  <si>
+    <t>Invalid request body ( POST)</t>
+  </si>
+  <si>
+    <t>LearningApirestassure</t>
+  </si>
+  <si>
+    <t>Missing mandatory fields(programName) ( POST)</t>
+  </si>
+  <si>
+    <t>JavaReflectionTest</t>
+  </si>
+  <si>
+    <t>Missing program status ( POST)</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Valid GET(GETALLPrograms)</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>invalid endpoint(GETALLPrograms)</t>
+  </si>
+  <si>
+    <t>Method Not Allowed</t>
+  </si>
+  <si>
+    <t>Invalid Method(GETALLPrograms)</t>
+  </si>
+  <si>
+    <t>unAuthorized</t>
+  </si>
+  <si>
+    <t>NOAUTH(GETALLPrograms)</t>
+  </si>
+  <si>
+    <t>Valid (GETBY PROGRAMId)</t>
+  </si>
+  <si>
+    <t>{programId}</t>
+  </si>
+  <si>
+    <t>Invalid ID(GETBY PROGRAMId)</t>
+  </si>
+  <si>
+    <t>invalid baseurl(GETBY PROGRAMId)</t>
+  </si>
+  <si>
+    <t>invalid endpoint(GETBY PROGRAMId)</t>
+  </si>
+  <si>
+    <t>valid (GETALLUSERS)</t>
+  </si>
+  <si>
+    <t>invalid endpoint(GETALLUSERS)</t>
+  </si>
+  <si>
+    <t>Invalid Method(GETALLUSERS)</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>Unauthorized(GETALLUSERS)</t>
+  </si>
+  <si>
+    <t>InActive</t>
+  </si>
+  <si>
+    <t>Valid programID and valid request body(id)</t>
+  </si>
+  <si>
+    <t>Invalid programID and valid request body(id)</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>JavaGraphQ</t>
+  </si>
+  <si>
+    <t>Invalid request body(id)</t>
+  </si>
+  <si>
+    <t>No request body(id)</t>
+  </si>
+  <si>
+    <t>javai/o</t>
+  </si>
+  <si>
+    <t>Missing mandatoryfield(id)(error)</t>
+  </si>
+  <si>
+    <t>Validname and responsebody(Pname)</t>
+  </si>
+  <si>
+    <t>customerservice</t>
+  </si>
+  <si>
+    <t>javai/olam2</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>Update with invalidprogramname(pname)(error)</t>
+  </si>
+  <si>
+    <t>Validname with missing fields(pname)</t>
+  </si>
+  <si>
+    <t>AndroidJavaApp</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>invalidvaluesinbody(pname)</t>
+  </si>
+  <si>
+    <t>ihfoifikfk</t>
+  </si>
+  <si>
+    <t>JAVACODE</t>
+  </si>
+  <si>
+    <t>invaliddescription(pname)</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>update a status(pname)</t>
+  </si>
+  <si>
+    <t>Noauth(pname)</t>
+  </si>
+  <si>
+    <t>Delete with valid progname</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Delete invalid progname</t>
+  </si>
+  <si>
+    <t>Unauthorized(Del)</t>
+  </si>
+  <si>
+    <t>Delete with valid progid</t>
+  </si>
+  <si>
+    <t>Delete invalid progid</t>
+  </si>
+  <si>
+    <t>oracleJDBCConnectionTest</t>
+  </si>
+  <si>
+    <t>Restassurejavaconnections</t>
+  </si>
+  <si>
+    <t>JavalambdaStreamAPI</t>
+  </si>
+  <si>
+    <t>JavaJunitTestingFrameworks</t>
+  </si>
+  <si>
+    <t>AndroidJavaapiApplication</t>
+  </si>
+  <si>
+    <t>JavacucumberCollections</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +707,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -489,13 +747,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1512,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08585DE4-21F5-4ECA-AC96-BA3437EE27B8}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2140,4 +2406,1402 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36783232-AC71-4317-8258-5FB3BDA138F6}">
+  <dimension ref="A1:K190"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>201</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>400</v>
+      </c>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="5">
+        <v>400</v>
+      </c>
+      <c r="E5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>400</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="5">
+        <v>400</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="5">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D9" s="5">
+        <v>404</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="5">
+        <v>405</v>
+      </c>
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="5">
+        <v>401</v>
+      </c>
+      <c r="E11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="5">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="5">
+        <v>404</v>
+      </c>
+      <c r="E13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13">
+        <v>3553</v>
+      </c>
+      <c r="I13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="5">
+        <v>404</v>
+      </c>
+      <c r="E14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="5">
+        <v>404</v>
+      </c>
+      <c r="E15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="5">
+        <v>200</v>
+      </c>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D17" s="5">
+        <v>404</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D18" s="5">
+        <v>405</v>
+      </c>
+      <c r="E18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="5">
+        <v>401</v>
+      </c>
+      <c r="E19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="7">
+        <v>200</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D21" s="5">
+        <v>404</v>
+      </c>
+      <c r="E21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21">
+        <v>4564</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="5">
+        <v>400</v>
+      </c>
+      <c r="E22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>187</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D23" s="5">
+        <v>400</v>
+      </c>
+      <c r="E23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>188</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5">
+        <v>400</v>
+      </c>
+      <c r="E24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5">
+        <v>200</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="5">
+        <v>404</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>195</v>
+      </c>
+      <c r="I26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D27" s="5">
+        <v>400</v>
+      </c>
+      <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28">
+        <v>3242</v>
+      </c>
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="5">
+        <v>400</v>
+      </c>
+      <c r="E28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="5">
+        <v>400</v>
+      </c>
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="5">
+        <v>200</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31">
+        <v>3242</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="5">
+        <v>401</v>
+      </c>
+      <c r="E31" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D32" s="5">
+        <v>200</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>206</v>
+      </c>
+      <c r="I32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D33" s="5">
+        <v>404</v>
+      </c>
+      <c r="E33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
+        <v>208</v>
+      </c>
+      <c r="I33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D34" s="5">
+        <v>401</v>
+      </c>
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D35" s="5">
+        <v>200</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>210</v>
+      </c>
+      <c r="I35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D36" s="5">
+        <v>404</v>
+      </c>
+      <c r="E36" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D37" s="5">
+        <v>401</v>
+      </c>
+      <c r="E37" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D103" s="5"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D106" s="5"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D107" s="5"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D108" s="5"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D110" s="5"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D112" s="5"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D113" s="5"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D114" s="5"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D115" s="5"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D116" s="5"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D117" s="5"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D119" s="5"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D122" s="5"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D123" s="5"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D124" s="5"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D125" s="5"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D126" s="5"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D127" s="5"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D128" s="5"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="5"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="5"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D132" s="5"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="5"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D134" s="5"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="5"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="5"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D141" s="5"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D142" s="5"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D143" s="5"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D145" s="5"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D146" s="5"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D147" s="5"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D148" s="5"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D149" s="5"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D150" s="5"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D151" s="5"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D152" s="5"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D153" s="5"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D155" s="5"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D156" s="5"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D157" s="5"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D158" s="5"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D159" s="5"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D160" s="5"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D161" s="5"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D164" s="5"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D168" s="5"/>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D169" s="5"/>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D170" s="5"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D171" s="5"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D172" s="5"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D173" s="5"/>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D174" s="5"/>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D175" s="5"/>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D177" s="5"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D179" s="5"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D180" s="5"/>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D181" s="5"/>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D182" s="5"/>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D183" s="5"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D184" s="5"/>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D186" s="5"/>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D188" s="5"/>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D189" s="5"/>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D190" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NumpyNinza\RestAssured_lmsHackathon\LMS_RestAssured\Team1_AssuredAutomators_Lms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3D548E-D56D-41E8-A8E3-C3FA657A1345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314E7F10-D541-40A0-AA7D-192A4033AE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-760" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
   <si>
     <t>Scenario</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>%^&amp;</t>
+  </si>
+  <si>
+    <t>text/html;charset=utf-8</t>
+  </si>
+  <si>
+    <t>UpdateBatchWithNoAuth</t>
+  </si>
+  <si>
+    <t>Automation124</t>
+  </si>
+  <si>
+    <t>NoCode123</t>
   </si>
 </sst>
 </file>
@@ -720,10 +732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1022,7 +1034,9 @@
       <c r="G11">
         <v>404</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="J11" t="s">
         <v>16</v>
       </c>
@@ -1209,6 +1223,32 @@
         <v>39</v>
       </c>
       <c r="J18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>16713</v>
+      </c>
+      <c r="G19">
+        <v>401</v>
+      </c>
+      <c r="J19" t="s">
         <v>18</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NumpyNinza\RestAssured_lmsHackathon\LMS_RestAssured\Team1_AssuredAutomators_Lms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB5779-D921-4E98-A137-09096697B74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0CCD21-0CDE-424C-92BB-D0C5D0B0E356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-760" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-760" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="233">
   <si>
     <t>Scenario</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Automation112</t>
-  </si>
-  <si>
     <t>ContentType</t>
   </si>
   <si>
@@ -268,12 +265,6 @@
     <t>go</t>
   </si>
   <si>
-    <t>ram</t>
-  </si>
-  <si>
-    <t>R01</t>
-  </si>
-  <si>
     <t>%^&amp;</t>
   </si>
   <si>
@@ -637,36 +628,9 @@
     <t>JavacucumberCollectionsx</t>
   </si>
   <si>
-    <t>RestassurejavaconnectionsAAA</t>
-  </si>
-  <si>
-    <t>oracleJDBCConnectionTestAAA</t>
-  </si>
-  <si>
     <t>RestassurejavaconnectionsAAAA</t>
   </si>
   <si>
-    <t>MLBatch311111</t>
-  </si>
-  <si>
-    <t>MLBatch311112</t>
-  </si>
-  <si>
-    <t>MLBatch311113</t>
-  </si>
-  <si>
-    <t>MLBatch311114</t>
-  </si>
-  <si>
-    <t>MLBatch311115</t>
-  </si>
-  <si>
-    <t>MLBatch311116</t>
-  </si>
-  <si>
-    <t>physics56</t>
-  </si>
-  <si>
     <t>jasnew36</t>
   </si>
   <si>
@@ -694,10 +658,76 @@
     <t>python36</t>
   </si>
   <si>
-    <t>+91 1236011670</t>
-  </si>
-  <si>
-    <t>NinjaAAA@gmail.com</t>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>UpdateBatchWithDeletedBatchId</t>
+  </si>
+  <si>
+    <t>UpdateBatchWithDeletedProgramID</t>
+  </si>
+  <si>
+    <t>NoCode124</t>
+  </si>
+  <si>
+    <t>NoCode125</t>
+  </si>
+  <si>
+    <t>ProgramId field is needed; It should be a positive number</t>
+  </si>
+  <si>
+    <t>Invalid Status: must be Active or Inactive</t>
+  </si>
+  <si>
+    <t>No of Classes is needed; It should be a positive number</t>
+  </si>
+  <si>
+    <t>batchName Please provide a valid name and must begin with letter and can have letters,numbers and sometimes hyphens</t>
+  </si>
+  <si>
+    <t>oracleJDBCConnectionTestAAAb</t>
+  </si>
+  <si>
+    <t>rama</t>
+  </si>
+  <si>
+    <t>+91 1236666670</t>
+  </si>
+  <si>
+    <t>physics567</t>
+  </si>
+  <si>
+    <t>NinjaAAA1@gmail.com</t>
+  </si>
+  <si>
+    <t>RestassurejavaconnectionsAAABxx</t>
+  </si>
+  <si>
+    <t>Automation1122</t>
+  </si>
+  <si>
+    <t>AWS111</t>
+  </si>
+  <si>
+    <t>AWS222</t>
+  </si>
+  <si>
+    <t>AWS333</t>
+  </si>
+  <si>
+    <t>AWS444</t>
+  </si>
+  <si>
+    <t>AWS555</t>
+  </si>
+  <si>
+    <t>AWS666</t>
+  </si>
+  <si>
+    <t>UpdateBatchWithInvalidBatchId</t>
+  </si>
+  <si>
+    <t>NoCode126</t>
   </si>
 </sst>
 </file>
@@ -1079,56 +1109,56 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
       </c>
       <c r="D3">
         <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1143,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,27 +1212,27 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1217,18 +1247,18 @@
         <v>201</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1243,21 +1273,21 @@
         <v>201</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1272,18 +1302,18 @@
         <v>201</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1297,19 +1327,22 @@
       <c r="G5">
         <v>400</v>
       </c>
+      <c r="H5" t="s">
+        <v>214</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1320,19 +1353,22 @@
       <c r="G6">
         <v>400</v>
       </c>
+      <c r="H6" t="s">
+        <v>215</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1346,16 +1382,19 @@
       <c r="G7">
         <v>400</v>
       </c>
+      <c r="H7" t="s">
+        <v>216</v>
+      </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1369,16 +1408,19 @@
       <c r="G8">
         <v>400</v>
       </c>
+      <c r="H8" t="s">
+        <v>217</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1390,21 +1432,21 @@
         <v>400</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1420,18 +1462,18 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1446,18 +1488,18 @@
         <v>404</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1469,21 +1511,21 @@
         <v>400</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1498,21 +1540,21 @@
         <v>400</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>23</v>
@@ -1527,21 +1569,21 @@
         <v>400</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1556,21 +1598,21 @@
         <v>200</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1585,38 +1627,44 @@
         <v>200</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17">
         <v>400</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1631,21 +1679,21 @@
         <v>400</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1659,13 +1707,75 @@
       <c r="G19">
         <v>401</v>
       </c>
+      <c r="I19" s="1"/>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>16713</v>
+      </c>
+      <c r="G20">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>16713</v>
+      </c>
+      <c r="G21">
+        <v>400</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>16713</v>
+      </c>
+      <c r="G22">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1673,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0883ED9D-FC09-4A47-93CF-B3A51E2E4694}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,99 +1812,99 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
-        <v>68</v>
-      </c>
       <c r="Q1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>78</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
       </c>
       <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
         <v>75</v>
-      </c>
-      <c r="N2" t="s">
-        <v>76</v>
       </c>
       <c r="O2" t="s">
         <v>6</v>
@@ -1806,7 +1916,7 @@
         <v>201</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1823,7 +1933,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,145 +1961,145 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
       <c r="O1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M2">
         <v>201</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M3">
         <v>400</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>125</v>
@@ -1998,376 +2108,376 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M4">
         <v>404</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M5">
         <v>400</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M6">
         <v>400</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M7">
         <v>400</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M8">
         <v>400</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M9">
         <v>400</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M10">
         <v>400</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M11">
         <v>401</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>1.02</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M12">
         <v>404</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2376,75 +2486,75 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M13">
         <v>401</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M14">
         <v>415</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2567,7 @@
   <dimension ref="A1:K190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,45 +2587,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2524,16 +2634,16 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J2" s="4" t="b">
         <v>1</v>
@@ -2544,7 +2654,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2553,16 +2663,16 @@
         <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J3" s="4" t="b">
         <v>1</v>
@@ -2573,10 +2683,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2585,16 +2695,16 @@
         <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J4" s="4" t="b">
         <v>1</v>
@@ -2605,28 +2715,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D5" s="4">
         <v>400</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J5" s="4" t="b">
         <v>1</v>
@@ -2637,7 +2747,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -2646,16 +2756,16 @@
         <v>400</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J6" s="4" t="b">
         <v>1</v>
@@ -2666,25 +2776,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D7" s="4">
         <v>400</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J7" s="4" t="b">
         <v>1</v>
@@ -2698,16 +2808,16 @@
         <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J8" s="4" t="b">
         <v>1</v>
@@ -2721,16 +2831,16 @@
         <v>404</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J9" s="4" t="b">
         <v>1</v>
@@ -2744,16 +2854,16 @@
         <v>405</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J10" s="4" t="b">
         <v>1</v>
@@ -2767,16 +2877,16 @@
         <v>401</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J11" s="4" t="b">
         <v>0</v>
@@ -2790,19 +2900,19 @@
         <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J12" s="4" t="b">
         <v>1</v>
@@ -2816,19 +2926,19 @@
         <v>404</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H13">
         <v>3553</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J13" s="4" t="b">
         <v>1</v>
@@ -2842,16 +2952,16 @@
         <v>404</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J14" s="4" t="b">
         <v>1</v>
@@ -2865,16 +2975,16 @@
         <v>404</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J15" s="4" t="b">
         <v>1</v>
@@ -2888,16 +2998,16 @@
         <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J16" s="4" t="b">
         <v>1</v>
@@ -2911,16 +3021,16 @@
         <v>404</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J17" s="4" t="b">
         <v>1</v>
@@ -2934,16 +3044,16 @@
         <v>405</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J18" s="4" t="b">
         <v>1</v>
@@ -2957,16 +3067,16 @@
         <v>401</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J19" s="4" t="b">
         <v>0</v>
@@ -2977,31 +3087,31 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D20" s="6">
         <v>200</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" t="s">
         <v>129</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" t="s">
-        <v>158</v>
-      </c>
-      <c r="I20" t="s">
-        <v>132</v>
       </c>
       <c r="J20" s="4" t="b">
         <v>1</v>
@@ -3015,19 +3125,19 @@
         <v>404</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H21">
         <v>4564</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J21" s="4" t="b">
         <v>1</v>
@@ -3038,25 +3148,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D22" s="4">
         <v>400</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J22" s="4" t="b">
         <v>1</v>
@@ -3070,16 +3180,16 @@
         <v>400</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J23" s="4" t="b">
         <v>1</v>
@@ -3090,7 +3200,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -3099,24 +3209,24 @@
         <v>400</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -3125,42 +3235,42 @@
         <v>200</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" t="s">
         <v>129</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s">
-        <v>149</v>
-      </c>
-      <c r="I25" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D26" s="4">
         <v>404</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3168,120 +3278,120 @@
         <v>400</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B28">
         <v>3242</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D28" s="4">
         <v>400</v>
       </c>
       <c r="E28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s">
-        <v>143</v>
-      </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D29" s="4">
         <v>400</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D30" s="4">
         <v>200</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" t="s">
         <v>129</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B31">
         <v>3242</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D31" s="4">
         <v>401</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3289,16 +3399,16 @@
         <v>200</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
@@ -3306,16 +3416,16 @@
         <v>404</v>
       </c>
       <c r="E33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" t="s">
-        <v>130</v>
-      </c>
       <c r="I33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
@@ -3323,16 +3433,16 @@
         <v>401</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
@@ -3340,16 +3450,16 @@
         <v>200</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
@@ -3357,16 +3467,16 @@
         <v>404</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
@@ -3374,16 +3484,16 @@
         <v>401</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NumpyNinza\RestAssured_lmsHackathon\LMS_RestAssured\Team1_AssuredAutomators_Lms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0CCD21-0CDE-424C-92BB-D0C5D0B0E356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E95D0E-8102-4792-A319-F4EF71335122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-760" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-760" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -154,12 +154,6 @@
     <t>MLBatch521</t>
   </si>
   <si>
-    <t>MLBatch523</t>
-  </si>
-  <si>
-    <t>MLBatch524</t>
-  </si>
-  <si>
     <t>$%#</t>
   </si>
   <si>
@@ -691,30 +685,9 @@
     <t>rama</t>
   </si>
   <si>
-    <t>+91 1236666670</t>
-  </si>
-  <si>
-    <t>physics567</t>
-  </si>
-  <si>
-    <t>NinjaAAA1@gmail.com</t>
-  </si>
-  <si>
-    <t>RestassurejavaconnectionsAAABxx</t>
-  </si>
-  <si>
     <t>Automation1122</t>
   </si>
   <si>
-    <t>AWS111</t>
-  </si>
-  <si>
-    <t>AWS222</t>
-  </si>
-  <si>
-    <t>AWS333</t>
-  </si>
-  <si>
     <t>AWS444</t>
   </si>
   <si>
@@ -728,6 +701,33 @@
   </si>
   <si>
     <t>NoCode126</t>
+  </si>
+  <si>
+    <t>AWS1111</t>
+  </si>
+  <si>
+    <t>AWS2222</t>
+  </si>
+  <si>
+    <t>AWS3333</t>
+  </si>
+  <si>
+    <t>Cloud11</t>
+  </si>
+  <si>
+    <t>Cloud12</t>
+  </si>
+  <si>
+    <t>RestassurejavaconnectionsAAABxxx</t>
+  </si>
+  <si>
+    <t>physics5675</t>
+  </si>
+  <si>
+    <t>+91 1266666670</t>
+  </si>
+  <si>
+    <t>NinjaAAA12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>36</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -1143,19 +1143,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
       </c>
       <c r="D3">
         <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,10 +1229,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" t="s">
         <v>224</v>
-      </c>
-      <c r="C2" t="s">
-        <v>225</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1258,7 +1258,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1287,7 +1287,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1313,7 +1313,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1328,7 +1328,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>38</v>
@@ -1342,7 +1342,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1354,7 +1354,7 @@
         <v>400</v>
       </c>
       <c r="H6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>38</v>
@@ -1368,7 +1368,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>400</v>
       </c>
       <c r="H7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>38</v>
@@ -1409,7 +1409,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>38</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1488,7 +1488,7 @@
         <v>404</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
@@ -1554,7 +1554,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>23</v>
@@ -1583,7 +1583,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1612,7 +1612,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1664,7 +1664,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1687,13 +1687,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
         <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1714,10 +1714,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" t="s">
         <v>210</v>
-      </c>
-      <c r="C20" t="s">
-        <v>212</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" t="s">
         <v>211</v>
-      </c>
-      <c r="C21" t="s">
-        <v>213</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -1783,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0883ED9D-FC09-4A47-93CF-B3A51E2E4694}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -1812,49 +1812,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>65</v>
-      </c>
-      <c r="O1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" t="s">
-        <v>67</v>
       </c>
       <c r="Q1" t="s">
         <v>36</v>
@@ -1865,52 +1865,52 @@
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" t="s">
-        <v>72</v>
-      </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>201</v>
@@ -1961,37 +1961,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s">
         <v>36</v>
@@ -2008,37 +2008,37 @@
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M2">
         <v>201</v>
@@ -2052,40 +2052,40 @@
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M3">
         <v>400</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>125</v>
@@ -2108,31 +2108,31 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M4">
         <v>404</v>
@@ -2146,34 +2146,34 @@
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M5">
         <v>400</v>
@@ -2187,37 +2187,37 @@
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M6">
         <v>400</v>
@@ -2231,34 +2231,34 @@
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M7">
         <v>400</v>
@@ -2272,37 +2272,37 @@
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M8">
         <v>400</v>
@@ -2316,34 +2316,34 @@
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M9">
         <v>400</v>
@@ -2357,25 +2357,25 @@
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M10">
         <v>400</v>
@@ -2389,37 +2389,37 @@
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" t="s">
         <v>93</v>
       </c>
-      <c r="E11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" t="s">
-        <v>95</v>
-      </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M11">
         <v>401</v>
@@ -2433,37 +2433,37 @@
     </row>
     <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>1.02</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M12">
         <v>404</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2486,22 +2486,22 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M13">
         <v>401</v>
@@ -2515,43 +2515,43 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M14">
         <v>415</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P14" t="s">
         <v>15</v>
@@ -2587,45 +2587,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2634,16 +2634,16 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J2" s="4" t="b">
         <v>1</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2663,16 +2663,16 @@
         <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J3" s="4" t="b">
         <v>1</v>
@@ -2683,10 +2683,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2695,16 +2695,16 @@
         <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J4" s="4" t="b">
         <v>1</v>
@@ -2715,28 +2715,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D5" s="4">
         <v>400</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J5" s="4" t="b">
         <v>1</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -2756,16 +2756,16 @@
         <v>400</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J6" s="4" t="b">
         <v>1</v>
@@ -2776,25 +2776,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="4">
         <v>400</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J7" s="4" t="b">
         <v>1</v>
@@ -2808,16 +2808,16 @@
         <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J8" s="4" t="b">
         <v>1</v>
@@ -2831,16 +2831,16 @@
         <v>404</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J9" s="4" t="b">
         <v>1</v>
@@ -2854,16 +2854,16 @@
         <v>405</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J10" s="4" t="b">
         <v>1</v>
@@ -2877,16 +2877,16 @@
         <v>401</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J11" s="4" t="b">
         <v>0</v>
@@ -2900,19 +2900,19 @@
         <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J12" s="4" t="b">
         <v>1</v>
@@ -2926,19 +2926,19 @@
         <v>404</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H13">
         <v>3553</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J13" s="4" t="b">
         <v>1</v>
@@ -2952,16 +2952,16 @@
         <v>404</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J14" s="4" t="b">
         <v>1</v>
@@ -2975,16 +2975,16 @@
         <v>404</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J15" s="4" t="b">
         <v>1</v>
@@ -2998,16 +2998,16 @@
         <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J16" s="4" t="b">
         <v>1</v>
@@ -3021,16 +3021,16 @@
         <v>404</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J17" s="4" t="b">
         <v>1</v>
@@ -3044,16 +3044,16 @@
         <v>405</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J18" s="4" t="b">
         <v>1</v>
@@ -3067,16 +3067,16 @@
         <v>401</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J19" s="4" t="b">
         <v>0</v>
@@ -3087,31 +3087,31 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D20" s="6">
         <v>200</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J20" s="4" t="b">
         <v>1</v>
@@ -3125,19 +3125,19 @@
         <v>404</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H21">
         <v>4564</v>
       </c>
       <c r="I21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J21" s="4" t="b">
         <v>1</v>
@@ -3148,25 +3148,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D22" s="4">
         <v>400</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J22" s="4" t="b">
         <v>1</v>
@@ -3180,16 +3180,16 @@
         <v>400</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J23" s="4" t="b">
         <v>1</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -3209,24 +3209,24 @@
         <v>400</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -3235,42 +3235,42 @@
         <v>200</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26" s="4">
         <v>404</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3278,120 +3278,120 @@
         <v>400</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B28">
         <v>3242</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" s="4">
         <v>400</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29" s="4">
         <v>400</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D30" s="4">
         <v>200</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B31">
         <v>3242</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D31" s="4">
         <v>401</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3399,16 +3399,16 @@
         <v>200</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" t="s">
-        <v>128</v>
-      </c>
       <c r="I32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
@@ -3416,16 +3416,16 @@
         <v>404</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
@@ -3433,16 +3433,16 @@
         <v>401</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
@@ -3450,16 +3450,16 @@
         <v>200</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
@@ -3467,16 +3467,16 @@
         <v>404</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
@@ -3484,16 +3484,16 @@
         <v>401</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NumpyNinza\RestAssured_lmsHackathon\LMS_RestAssured\Team1_AssuredAutomators_Lms\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sindhu\Sindhu Docs\Numpy Ninja\API postman\Hackathon\phase 2\HackathonLMS\Team1_AssuredAutomators_Lms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB5779-D921-4E98-A137-09096697B74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B28EEA7-429F-42D1-B237-A84C0E0419B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-760" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Automation112</t>
-  </si>
-  <si>
     <t>ContentType</t>
   </si>
   <si>
@@ -634,21 +631,12 @@
     <t>ProgramDescription</t>
   </si>
   <si>
-    <t>JavacucumberCollectionsx</t>
-  </si>
-  <si>
-    <t>RestassurejavaconnectionsAAA</t>
-  </si>
-  <si>
     <t>oracleJDBCConnectionTestAAA</t>
   </si>
   <si>
     <t>RestassurejavaconnectionsAAAA</t>
   </si>
   <si>
-    <t>MLBatch311111</t>
-  </si>
-  <si>
     <t>MLBatch311112</t>
   </si>
   <si>
@@ -664,9 +652,6 @@
     <t>MLBatch311116</t>
   </si>
   <si>
-    <t>physics56</t>
-  </si>
-  <si>
     <t>jasnew36</t>
   </si>
   <si>
@@ -698,6 +683,21 @@
   </si>
   <si>
     <t>NinjaAAA@gmail.com</t>
+  </si>
+  <si>
+    <t>JavacucumberCollectionsx1</t>
+  </si>
+  <si>
+    <t>MLBtch311891</t>
+  </si>
+  <si>
+    <t>Autation4189</t>
+  </si>
+  <si>
+    <t>Restassurejavaconnectionslpp</t>
+  </si>
+  <si>
+    <t>physics07</t>
   </si>
 </sst>
 </file>
@@ -1064,71 +1064,71 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
       </c>
       <c r="D3">
         <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1145,24 +1145,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,27 +1182,27 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1217,18 +1217,18 @@
         <v>201</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1243,21 +1243,21 @@
         <v>201</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1272,18 +1272,18 @@
         <v>201</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1298,18 +1298,18 @@
         <v>400</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1321,18 +1321,18 @@
         <v>400</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1347,15 +1347,15 @@
         <v>400</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1370,15 +1370,15 @@
         <v>400</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1390,21 +1390,21 @@
         <v>400</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1420,18 +1420,18 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1446,18 +1446,18 @@
         <v>404</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1469,21 +1469,21 @@
         <v>400</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1498,21 +1498,21 @@
         <v>400</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>23</v>
@@ -1527,21 +1527,21 @@
         <v>400</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1556,21 +1556,21 @@
         <v>200</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1585,38 +1585,38 @@
         <v>200</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17">
         <v>400</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1631,21 +1631,21 @@
         <v>400</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1660,7 +1660,7 @@
         <v>401</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1673,140 +1673,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0883ED9D-FC09-4A47-93CF-B3A51E2E4694}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="J2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" t="s">
         <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="K2" t="s">
-        <v>80</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
       </c>
       <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
         <v>75</v>
-      </c>
-      <c r="N2" t="s">
-        <v>76</v>
       </c>
       <c r="O2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q2">
         <v>201</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1822,174 +1822,174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBFC950-F239-467B-95FF-86592E8194E1}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
       <c r="O1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2">
         <v>201</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3">
         <v>400</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <v>125</v>
@@ -1998,376 +1998,376 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4">
         <v>404</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5">
         <v>400</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M6">
         <v>400</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M7">
         <v>400</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8">
         <v>400</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M9">
         <v>400</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M10">
         <v>400</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11">
+        <v>400</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11">
-        <v>401</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>97</v>
       </c>
       <c r="C12">
         <v>1.02</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12">
         <v>404</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2376,75 +2376,75 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13">
         <v>401</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14">
         <v>415</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2457,65 +2457,65 @@
   <dimension ref="A1:K190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2524,16 +2524,16 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J2" s="4" t="b">
         <v>1</v>
@@ -2542,9 +2542,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2553,16 +2553,16 @@
         <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J3" s="4" t="b">
         <v>1</v>
@@ -2571,12 +2571,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2585,16 +2585,16 @@
         <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J4" s="4" t="b">
         <v>1</v>
@@ -2603,30 +2603,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="4">
         <v>400</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J5" s="4" t="b">
         <v>1</v>
@@ -2635,9 +2635,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -2646,16 +2646,16 @@
         <v>400</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J6" s="4" t="b">
         <v>1</v>
@@ -2664,27 +2664,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="4">
         <v>400</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J7" s="4" t="b">
         <v>1</v>
@@ -2693,21 +2693,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D8" s="4">
         <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J8" s="4" t="b">
         <v>1</v>
@@ -2716,21 +2716,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D9" s="4">
         <v>404</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J9" s="4" t="b">
         <v>1</v>
@@ -2739,21 +2739,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D10" s="4">
         <v>405</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J10" s="4" t="b">
         <v>1</v>
@@ -2762,21 +2762,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D11" s="4">
         <v>401</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J11" s="4" t="b">
         <v>0</v>
@@ -2785,24 +2785,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" s="4">
         <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J12" s="4" t="b">
         <v>1</v>
@@ -2811,24 +2811,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D13" s="4">
         <v>404</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H13">
         <v>3553</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J13" s="4" t="b">
         <v>1</v>
@@ -2837,21 +2837,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" s="4">
         <v>404</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J14" s="4" t="b">
         <v>1</v>
@@ -2860,21 +2860,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D15" s="4">
         <v>404</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J15" s="4" t="b">
         <v>1</v>
@@ -2883,21 +2883,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="4">
         <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J16" s="4" t="b">
         <v>1</v>
@@ -2906,21 +2906,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D17" s="4">
         <v>404</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J17" s="4" t="b">
         <v>1</v>
@@ -2929,21 +2929,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D18" s="4">
         <v>405</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J18" s="4" t="b">
         <v>1</v>
@@ -2952,21 +2952,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="4">
         <v>401</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J19" s="4" t="b">
         <v>0</v>
@@ -2975,33 +2975,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D20" s="6">
         <v>200</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J20" s="4" t="b">
         <v>1</v>
@@ -3010,24 +3010,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
         <v>404</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H21">
         <v>4564</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J21" s="4" t="b">
         <v>1</v>
@@ -3036,27 +3036,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="4">
         <v>400</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J22" s="4" t="b">
         <v>1</v>
@@ -3065,21 +3065,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D23" s="4">
         <v>400</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J23" s="4" t="b">
         <v>1</v>
@@ -3088,9 +3088,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -3099,24 +3099,24 @@
         <v>400</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -3125,724 +3125,724 @@
         <v>200</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="4">
         <v>404</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" s="4">
         <v>400</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28">
         <v>3242</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="4">
         <v>400</v>
       </c>
       <c r="E28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s">
-        <v>143</v>
-      </c>
-      <c r="I28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" t="s">
-        <v>141</v>
-      </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="4">
         <v>400</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="4">
         <v>200</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B31">
         <v>3242</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="4">
         <v>401</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>200</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>404</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>401</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>200</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <v>404</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>401</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D190" s="4"/>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sindhu\Sindhu Docs\Numpy Ninja\API postman\Hackathon\phase 2\HackathonLMS\Team1_AssuredAutomators_Lms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B28EEA7-429F-42D1-B237-A84C0E0419B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582DBF47-C224-453E-9B6B-D76C894E2A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1823,7 +1823,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
